--- a/recomendador1v2_training/resultadosEnExcel.xlsx
+++ b/recomendador1v2_training/resultadosEnExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="11595" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>all</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>One hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fijandonos en como varía la precisión según en cuantos vecinos más póximos se fija el algoritmo, vemos como empieza incrementandose obteniendo similitudes entre k=10 y k=100 y tras k&gt;100 empieza a volver a bajar tendiendo a prácticamente un límite para todos. Cada línea de este gráfico representa la cantidad de problemas que obtenemos del recomendador (Los N mejores), por lo que, cada serie, es un N=numero de la serie.                                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>Fijandonos en como varía la precisión según en cuantos vecinos más póximos se fija el algoritmo, vemos como empieza incrementandose obteniendo similitudes entre k=10 y k=100 y tras k&gt;100 empieza a volver a bajar tendiendo a prácticamente un límite para todos. Cada línea de este gráfico representa la cantidad de problemas que obtenemos del recomendador (Los N mejores), por lo que, cada serie, es un N=numero de la serie                                                                                                                                                                                                                                                                                           Este tipo de entrenamiento no es del todo preciso ya que a medida que la cantidad de problemas aumenta, como el usuario tiene un conjunto mas grande de problemas a realizar es mas complicado que seleccione el recomendado por su cuenta, ya que lo que hacemos al evaluar y entrenar el recomendador es ver si el usuario por su cuenta ha seguido el itinerario que le recomendamos sin saber realmente si si quiera ha sido capaz de descubrir los problemas que le recomendamos, por lo que a medida que crece el numero de problemas en el Juez en línea en cuestión, la precisión siempre bajará. Si estos resultados se comparan con los de otros recomendadores se debe usar las mismas métricas, los mismos cortes y solo podríamos usar los resultados a modo de comparacion, pero no nos muestra con fiabilidad una precisón real, etc. Se supone que en la realidad la precisión de acierto del recomendador es mayor que la que se obtiene con este tipo de entrenamiento debido a lo ya mencionado.</t>
   </si>
 </sst>
 </file>
@@ -130,18 +136,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,11 +1303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1401990304"/>
-        <c:axId val="-1401987040"/>
+        <c:axId val="1710755568"/>
+        <c:axId val="1710745232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1401990304"/>
+        <c:axId val="1710755568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1380,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1401987040"/>
+        <c:crossAx val="1710745232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1401987040"/>
+        <c:axId val="1710745232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,7 +1440,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1401990304"/>
+        <c:crossAx val="1710755568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,11 +2380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1036842272"/>
-        <c:axId val="-1036843360"/>
+        <c:axId val="1710758832"/>
+        <c:axId val="1710741968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1036842272"/>
+        <c:axId val="1710758832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2457,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1036843360"/>
+        <c:crossAx val="1710741968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2459,7 +2465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1036843360"/>
+        <c:axId val="1710741968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2517,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1036842272"/>
+        <c:crossAx val="1710758832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2642,7 +2648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3695,11 +3700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-591302336"/>
-        <c:axId val="-591296896"/>
+        <c:axId val="1710759376"/>
+        <c:axId val="1710770256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-591302336"/>
+        <c:axId val="1710759376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3777,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591296896"/>
+        <c:crossAx val="1710770256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3780,7 +3785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-591296896"/>
+        <c:axId val="1710770256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3832,7 +3837,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591302336"/>
+        <c:crossAx val="1710759376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,7 +3861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3968,7 +3972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4760,11 +4763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-591297440"/>
-        <c:axId val="-591302880"/>
+        <c:axId val="1710756112"/>
+        <c:axId val="1710744688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-591297440"/>
+        <c:axId val="1710756112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +4840,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591302880"/>
+        <c:crossAx val="1710744688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4845,7 +4848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-591302880"/>
+        <c:axId val="1710744688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,7 +4900,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591297440"/>
+        <c:crossAx val="1710756112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4921,7 +4924,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6086,11 +6088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-532706864"/>
-        <c:axId val="-532718832"/>
+        <c:axId val="1710753392"/>
+        <c:axId val="1710771344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-532706864"/>
+        <c:axId val="1710753392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6165,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-532718832"/>
+        <c:crossAx val="1710771344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6171,7 +6173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-532718832"/>
+        <c:axId val="1710771344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6223,7 +6225,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-532706864"/>
+        <c:crossAx val="1710753392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7151,11 +7153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-591293088"/>
-        <c:axId val="-591320288"/>
+        <c:axId val="1710766448"/>
+        <c:axId val="1710744144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-591293088"/>
+        <c:axId val="1710766448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7230,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591320288"/>
+        <c:crossAx val="1710744144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7236,7 +7238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-591320288"/>
+        <c:axId val="1710744144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7288,7 +7290,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-591293088"/>
+        <c:crossAx val="1710766448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11391,27 +11393,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11483,7 +11485,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -11519,7 +11521,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1">
         <v>20</v>
       </c>
@@ -11555,7 +11557,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>50</v>
       </c>
@@ -11591,7 +11593,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>100</v>
       </c>
@@ -11627,7 +11629,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>250</v>
       </c>
@@ -11663,7 +11665,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1">
         <v>500</v>
       </c>
@@ -11699,7 +11701,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1">
         <v>1000</v>
       </c>
@@ -11735,7 +11737,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1">
         <v>2000</v>
       </c>
@@ -11841,383 +11843,383 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12241,20 +12243,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12676,552 +12678,552 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13237,27 +13239,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -13679,383 +13681,383 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/recomendador1v2_training/resultadosEnExcel.xlsx
+++ b/recomendador1v2_training/resultadosEnExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madraza\Documents\GitHub\recomendadores\recomendador1v2_training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>all</t>
   </si>
@@ -40,16 +40,28 @@
     <t>Resultados recomendación K-VECINOS round 4 decimales, validacion con formulas de pedro</t>
   </si>
   <si>
-    <t>Fijandonos en como varía la precisión según en cuantos vecinos más póximos se fija el algoritmo, vemos como empieza incrementandose obteniendo similitudes entre k=10 y k=100 y tras k&gt;100 empieza a volver a bajar tendiendo a prácticamente un límite para todos. Cada línea de este gráfico representa la cantidad de problemas que obtenemos del recomendador (Los N mejores), por lo que, cada serie, es un N=numero de la serie</t>
-  </si>
-  <si>
     <t>One hit</t>
   </si>
   <si>
-    <t xml:space="preserve">Fijandonos en como varía la precisión según en cuantos vecinos más póximos se fija el algoritmo, vemos como empieza incrementandose obteniendo similitudes entre k=10 y k=100 y tras k&gt;100 empieza a volver a bajar tendiendo a prácticamente un límite para todos. Cada línea de este gráfico representa la cantidad de problemas que obtenemos del recomendador (Los N mejores), por lo que, cada serie, es un N=numero de la serie.                                                                                                                                                                                         </t>
+    <t>K-vecinos</t>
   </si>
   <si>
-    <t>Fijandonos en como varía la precisión según en cuantos vecinos más póximos se fija el algoritmo, vemos como empieza incrementandose obteniendo similitudes entre k=10 y k=100 y tras k&gt;100 empieza a volver a bajar tendiendo a prácticamente un límite para todos. Cada línea de este gráfico representa la cantidad de problemas que obtenemos del recomendador (Los N mejores), por lo que, cada serie, es un N=numero de la serie                                                                                                                                                                                                                                                                                           Este tipo de entrenamiento no es del todo preciso ya que a medida que la cantidad de problemas aumenta, como el usuario tiene un conjunto mas grande de problemas a realizar es mas complicado que seleccione el recomendado por su cuenta, ya que lo que hacemos al evaluar y entrenar el recomendador es ver si el usuario por su cuenta ha seguido el itinerario que le recomendamos sin saber realmente si si quiera ha sido capaz de descubrir los problemas que le recomendamos, por lo que a medida que crece el numero de problemas en el Juez en línea en cuestión, la precisión siempre bajará. Si estos resultados se comparan con los de otros recomendadores se debe usar las mismas métricas, los mismos cortes y solo podríamos usar los resultados a modo de comparacion, pero no nos muestra con fiabilidad una precisón real, etc. Se supone que en la realidad la precisión de acierto del recomendador es mayor que la que se obtiene con este tipo de entrenamiento debido a lo ya mencionado.</t>
+    <t>Analizando la primera gráfica donde miramos para cada TOPN como varía según los parámetros de recomendación que se le asignen al algortimo (K-vecinos más similares) observamos como la recomendación para cualquier N, a medida que el parametro de recomendacion se aproxima a 10 (Vecinos más similares) la precisión crece, por lo que se entiende que el funcionamiento del recomendador mejora siempre, y con ligeras fluctuaciones, esa mejora dura hasta que empezamos a fijarnos a partir de los 100 vecinos mas similares, (El intervalo óptimo para K-vecinos varía entre 10 y 100), tras esto vemos como desciende de nuevo la precisión, ligeramente, pero a medida que los K-vecinos crecen a partir de 100, pierde precisión de recomendación de nuevo. Esto puede ser porque fijarnos en vecinos poco similares con el usuario a recomendar distorsionen ligeramente la información de los problemas que realmente un usuario necesita, por lo que si la similitud de un usuario es baja, y la tenemos en cuenta, va a ser en ocasiones un parámetro negativo que empeorará la recomendación.                                                                                                                                                 Por otro lado, analizando la segunda gráfica donde el eje de las X representa la cantidad de recomendaciones que pedimos al recomendador (Mejores N recomendaciones), y cada línea representa un parametro de configuración del recomendador (K-vecinos más similares) se observa que para una X baja se obtienen valores más altos que para una X alta, ya que la precisión se decrementa a medida que la X crece, siendo X &gt; 3 debida la naturaleza de la fórmula de precisión que genera que tienda a decrementarse (Fórmula ya mencionada previamente). Sin embargo, para N = 2 y 3 no se observan en conjunto esos decrementos apenas, si no que los valores se mantienen y en algunos casos incluso se obtienen mayores precisiones. De esta gráfica se obtiene como información concluyente que un valor óptimo a tener en cuenta a la hora de recomendar sería recomendar los 3 mejores problemas, ya que a medida que seguimos tirando de esa lista ordenada de recomendación, aunque el conjunto de problemas a recomendar sea mayor y por lo tanto tengamos más éxito en recomendar problemas exitosos, esos problemas nuevos que se incorporan cada vez tienen menos peso por lo que realmente son problemas que aunque se recomienden el recomendador considera que tiene menos éxito de que el usuario sea capaz de interesarse por el y de resolverlo. De todas formas como estos dos conceptos se contraponen apenas se nota ese decremento que implica obtener problemas con menos peso, ya que como el conjunto de problemas que recomendamos es mayor, el recomendador puede que acierte más al tener mayor rango de éxito. Se puede concluir que la forma en la que se obtiene la precisión para cada Top N problemas es la influyente en los resultados de este decrecimiento, y que esta segunda gráfica para evaluar independientemente el recomendador no es tan interesante, como si para evaluarla con otros recomendadores para ver si los valores que toman son mejores o peores. Esto se analizará mejor más adelante cuando se comparen los resultados en conjunto de ambos recomendadores. También se omitirán datos y se filtraran los más interesantes para comparar ya que se observa como cuando K vecinos tiende a su máximo apenas hay diferencias entre resultados (5000  ≈ 2000  ≈ All )</t>
+  </si>
+  <si>
+    <t>Como ya se ha comentado, el One hit representa tener al menos un acierto en el conjunto de problemas recomendados.                               Analizando la primera gráfica observamos que el conjunto de Top-N varía de forma similar para este concepto a medida que aplicamos el algoritmo de recomendación incluyendo más vecinos similares. El comportamiento que nos muestra la gráfica es el mismo con el que concluimos en el de la precisión, y es que para unos valores de k-vecinos entre 10 y 100 obtenemos los máximos one hit prácticamente. Vemos también que para valores menores a 10 nuestra función gráfica es creciente y para valores mayores que 100 nuestra gráfica empieza a decrecer. Lo que cambia aquí respecto la precisión es que  Las líneas están a diferentes niveles, pero eso se entiende mejor analizando la segunda gráfica.                                                                                                                                                                   Esta segunda gráfica en la que evaluamos el one-hit de este recomendador observamos como el one-hit crece a medida que crece N, como es de esperar, el one-hit debe crecer pues si aumentas el conjunto de problemas a recomendar, aumenta la probabilidad de que al menos uno tenga éxito y sobre todo teniendo en cuenta que ese conjunto son los que el recomendador ha considerado como mejores. Al igual que la precisión, aunque los valores los tenemos altos, no es tan fácil como a principio te puedes esperar aproximarse a 100 en ningunos casos ya que para conjuntos de problemas con cardinalidad grande, también tenemos en cuenta usuarios que solo han resuelto un problema como mínimo y no usamos como mínimo el tamaño del conjunto de problemas con el que estamos evaluando, por lo que reduce nuestra precisión y por arrastre nuestro one-hit. Si esta fórmula la aplicamos con otras consideraciones aunque el análisis sea similar ya que intentamos analizar las variaciones y no el valor en concreto, los valores subirían más. De todas formas esta segunda gráfica nos muestra que a medida que crece N, el one hit crece, aproximandose al máximo que es 100, pero la línea que se nos genera es curiosa ya que es curva por lo que a medida que crece N el valor crecería más lentamente, pero para N=maximo de problemas el One hit llegaría a su valor máximo.</t>
+  </si>
+  <si>
+    <t>Aquí tu análisis a limpio</t>
+  </si>
+  <si>
+    <t>TODO, POR ANALIZAR y terminar de indicar que representan los valores (aunque sigue las mismas lineas que las otras hojas solo que con la métrica del F-SCORE)</t>
+  </si>
+  <si>
+    <t>k-vecinos</t>
+  </si>
+  <si>
+    <t>Cantidad de problemas cogidos</t>
   </si>
 </sst>
 </file>
@@ -79,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +128,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -129,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -148,6 +172,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,88 +249,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Precisión siendo X=K-vecinos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22079155730533681"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.381714785651793E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.88396062992125979"/>
-          <c:h val="0.54380322251385238"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -389,6 +369,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -489,6 +480,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -589,6 +591,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -689,6 +702,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -789,6 +813,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -889,6 +924,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -991,6 +1037,17 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -1093,6 +1150,17 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -1195,6 +1263,17 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -1302,47 +1381,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710755568"/>
-        <c:axId val="1710745232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710755568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1006954544"/>
+        <c:axId val="-1006954000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1006954544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>K-Vecinos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1380,7 +1499,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710745232"/>
+        <c:crossAx val="-1006954000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1388,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710745232"/>
+        <c:axId val="-1006954000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,8 +1528,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Precisión</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1440,7 +1615,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710755568"/>
+        <c:crossAx val="-1006954544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,7 +1638,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1545,82 +1720,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Precisión siendo X=TOP N problemas</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18712489063867013"/>
-          <c:y val="3.7037037037037035E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.381714785651793E-2"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.88396062992125979"/>
-          <c:h val="0.54380322251385238"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2379,47 +2481,92 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710758832"/>
-        <c:axId val="1710741968"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710758832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1006952368"/>
+        <c:axId val="-1006952912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1006952368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de problemas cogidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2457,7 +2604,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710741968"/>
+        <c:crossAx val="-1006952912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2465,7 +2612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710741968"/>
+        <c:axId val="-1006952912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,8 +2633,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Precisión</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2517,7 +2720,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710758832"/>
+        <c:crossAx val="-1006952368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,7 +2743,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2622,62 +2825,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>X= K-vecinos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2686,6 +2834,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2700,7 +2859,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2741,7 +2900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$6:$B$16</c:f>
+              <c:f>Hoja2!$C$6:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2786,6 +2945,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2800,7 +2970,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2841,7 +3011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$6:$C$16</c:f>
+              <c:f>Hoja2!$D$6:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2886,6 +3056,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -2900,7 +3081,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2941,7 +3122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$D$6:$D$16</c:f>
+              <c:f>Hoja2!$E$6:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2986,6 +3167,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3000,7 +3192,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3041,7 +3233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$E$6:$E$16</c:f>
+              <c:f>Hoja2!$F$6:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3086,6 +3278,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3100,7 +3303,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3141,7 +3344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$F$6:$F$16</c:f>
+              <c:f>Hoja2!$G$6:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3186,6 +3389,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3200,7 +3414,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3241,7 +3455,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$G$6:$G$16</c:f>
+              <c:f>Hoja2!$H$6:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3286,6 +3500,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3302,7 +3527,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3343,7 +3568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$H$6:$H$16</c:f>
+              <c:f>Hoja2!$I$6:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3388,6 +3613,17 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3404,7 +3640,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3445,7 +3681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$I$6:$I$16</c:f>
+              <c:f>Hoja2!$J$6:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3490,6 +3726,17 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3506,7 +3753,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3547,7 +3794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$J$6:$J$16</c:f>
+              <c:f>Hoja2!$K$6:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3592,6 +3839,17 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -3608,7 +3866,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja2!$A$6:$A$16</c:f>
+              <c:f>Hoja2!$B$6:$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3649,7 +3907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$K$6:$K$16</c:f>
+              <c:f>Hoja2!$L$6:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3699,47 +3957,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710759376"/>
-        <c:axId val="1710770256"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710759376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1006962160"/>
+        <c:axId val="-1006960528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1006962160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>K-vecinos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3777,7 +4075,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710770256"/>
+        <c:crossAx val="-1006960528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3785,7 +4083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710770256"/>
+        <c:axId val="-1006960528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3806,8 +4104,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>One</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> Hit</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3837,7 +4196,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710759376"/>
+        <c:crossAx val="-1006962160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,7 +4219,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3941,67 +4301,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>X= TOP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> N</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -4012,7 +4312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$6</c:f>
+              <c:f>Hoja2!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4035,7 +4335,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$6:$K$6</c:f>
+              <c:f>Hoja2!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4079,7 +4379,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$7</c:f>
+              <c:f>Hoja2!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4102,7 +4402,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$7:$K$7</c:f>
+              <c:f>Hoja2!$C$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4146,7 +4446,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$8</c:f>
+              <c:f>Hoja2!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4169,7 +4469,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$8:$K$8</c:f>
+              <c:f>Hoja2!$C$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4213,7 +4513,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$9</c:f>
+              <c:f>Hoja2!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4236,7 +4536,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$9:$K$9</c:f>
+              <c:f>Hoja2!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4280,7 +4580,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$10</c:f>
+              <c:f>Hoja2!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4303,7 +4603,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$10:$K$10</c:f>
+              <c:f>Hoja2!$C$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4347,7 +4647,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$11</c:f>
+              <c:f>Hoja2!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4370,7 +4670,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$11:$K$11</c:f>
+              <c:f>Hoja2!$C$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4414,7 +4714,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$12</c:f>
+              <c:f>Hoja2!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4439,7 +4739,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$12:$K$12</c:f>
+              <c:f>Hoja2!$C$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4483,7 +4783,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$13</c:f>
+              <c:f>Hoja2!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4508,7 +4808,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$13:$K$13</c:f>
+              <c:f>Hoja2!$C$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4552,7 +4852,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$14</c:f>
+              <c:f>Hoja2!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4577,7 +4877,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$14:$K$14</c:f>
+              <c:f>Hoja2!$C$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4621,7 +4921,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$15</c:f>
+              <c:f>Hoja2!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4646,7 +4946,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$15:$K$15</c:f>
+              <c:f>Hoja2!$C$15:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4690,7 +4990,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja2!$A$16</c:f>
+              <c:f>Hoja2!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4715,7 +5015,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$16:$K$16</c:f>
+              <c:f>Hoja2!$C$16:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -4762,47 +5062,91 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710756112"/>
-        <c:axId val="1710744688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710756112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1006957264"/>
+        <c:axId val="-1006951824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1006957264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de problemas cogidos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4840,7 +5184,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710744688"/>
+        <c:crossAx val="-1006951824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4848,7 +5192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710744688"/>
+        <c:axId val="-1006951824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,8 +5213,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>One-hit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4900,7 +5300,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710756112"/>
+        <c:crossAx val="-1006957264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4923,7 +5323,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5004,68 +5405,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>F-Score</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> X=K-Vecinos</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5088,7 +5428,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5129,7 +5469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$4:$B$14</c:f>
+              <c:f>Hoja3!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5188,7 +5528,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5229,7 +5569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$C$4:$C$14</c:f>
+              <c:f>Hoja3!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5288,7 +5628,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5329,7 +5669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$D$4:$D$14</c:f>
+              <c:f>Hoja3!$E$4:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5388,7 +5728,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5429,7 +5769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$E$4:$E$14</c:f>
+              <c:f>Hoja3!$F$4:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5488,7 +5828,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5529,7 +5869,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$F$4:$F$14</c:f>
+              <c:f>Hoja3!$G$4:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5588,7 +5928,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5629,7 +5969,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$G$4:$G$14</c:f>
+              <c:f>Hoja3!$H$4:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5690,7 +6030,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5731,7 +6071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$H$4:$H$14</c:f>
+              <c:f>Hoja3!$I$4:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5792,7 +6132,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5833,7 +6173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$I$4:$I$14</c:f>
+              <c:f>Hoja3!$J$4:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5894,7 +6234,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -5935,7 +6275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$J$4:$J$14</c:f>
+              <c:f>Hoja3!$K$4:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5996,7 +6336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$4:$A$14</c:f>
+              <c:f>Hoja3!$B$4:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -6037,7 +6377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$K$4:$K$14</c:f>
+              <c:f>Hoja3!$L$4:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6087,47 +6427,87 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710753392"/>
-        <c:axId val="1710771344"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710753392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1006949648"/>
+        <c:axId val="-1006956720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1006949648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>K-vecinos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6165,7 +6545,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710771344"/>
+        <c:crossAx val="-1006956720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6173,7 +6553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710771344"/>
+        <c:axId val="-1006956720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,8 +6574,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>F-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -6225,7 +6661,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710753392"/>
+        <c:crossAx val="-1006949648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6248,7 +6684,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6330,68 +6766,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>F-Score</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> X=TOP N</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -6402,7 +6777,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$4</c:f>
+              <c:f>Hoja3!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6425,7 +6800,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$4:$K$4</c:f>
+              <c:f>Hoja3!$C$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6469,7 +6844,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$5</c:f>
+              <c:f>Hoja3!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6492,7 +6867,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$5:$K$5</c:f>
+              <c:f>Hoja3!$C$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6536,7 +6911,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$6</c:f>
+              <c:f>Hoja3!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6559,7 +6934,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$6:$K$6</c:f>
+              <c:f>Hoja3!$C$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6603,7 +6978,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$7</c:f>
+              <c:f>Hoja3!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6626,7 +7001,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$7:$K$7</c:f>
+              <c:f>Hoja3!$C$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6670,7 +7045,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$8</c:f>
+              <c:f>Hoja3!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6693,7 +7068,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$8:$K$8</c:f>
+              <c:f>Hoja3!$C$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6737,7 +7112,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$9</c:f>
+              <c:f>Hoja3!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6760,7 +7135,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$9:$K$9</c:f>
+              <c:f>Hoja3!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6804,7 +7179,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$10</c:f>
+              <c:f>Hoja3!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6829,7 +7204,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$10:$K$10</c:f>
+              <c:f>Hoja3!$C$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6873,7 +7248,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$11</c:f>
+              <c:f>Hoja3!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6898,7 +7273,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$11:$K$11</c:f>
+              <c:f>Hoja3!$C$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6942,7 +7317,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$12</c:f>
+              <c:f>Hoja3!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6967,7 +7342,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$12:$K$12</c:f>
+              <c:f>Hoja3!$C$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7011,7 +7386,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$13</c:f>
+              <c:f>Hoja3!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7036,7 +7411,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$13:$K$13</c:f>
+              <c:f>Hoja3!$C$13:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7080,7 +7455,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$A$14</c:f>
+              <c:f>Hoja3!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7105,7 +7480,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$14:$K$14</c:f>
+              <c:f>Hoja3!$C$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7152,47 +7527,92 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1710766448"/>
-        <c:axId val="1710744144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1710766448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:dropLines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="-1153263952"/>
+        <c:axId val="-1153259600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1153263952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> de problemas cogidos</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7230,7 +7650,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710744144"/>
+        <c:crossAx val="-1153259600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7238,7 +7658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1710744144"/>
+        <c:axId val="-1153259600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7259,8 +7679,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>F-Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -7290,7 +7766,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1710766448"/>
+        <c:crossAx val="-1153263952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7313,7 +7789,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -10932,15 +11408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:colOff>71437</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10962,15 +11438,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2505076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10998,13 +11474,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -11028,16 +11504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117661</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>103094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>60511</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11065,13 +11541,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -11095,16 +11571,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11393,11 +11869,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
@@ -11411,13 +11890,26 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -11450,6 +11942,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -11484,8 +11979,8 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -11521,7 +12016,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>20</v>
       </c>
@@ -11557,7 +12052,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>50</v>
       </c>
@@ -11593,7 +12088,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1">
         <v>100</v>
       </c>
@@ -11629,7 +12124,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>250</v>
       </c>
@@ -11665,7 +12160,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1">
         <v>500</v>
       </c>
@@ -11701,7 +12196,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1">
         <v>1000</v>
       </c>
@@ -11737,7 +12232,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1">
         <v>2000</v>
       </c>
@@ -11773,6 +12268,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
       <c r="B15" s="1">
         <v>5000</v>
       </c>
@@ -11808,6 +12304,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -11844,7 +12341,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -12026,7 +12523,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -12039,172 +12536,213 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="4"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -12222,9 +12760,12 @@
       <c r="M48" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="B33:L47"/>
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="B17:L31"/>
+    <mergeCell ref="A6:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12234,19 +12775,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K71"/>
+  <dimension ref="A3:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -12254,433 +12797,1676 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.2127</v>
+      </c>
+      <c r="F6">
+        <v>0.2661</v>
+      </c>
+      <c r="G6">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.36380000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.37609999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.2949</v>
+      </c>
+      <c r="F7">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.4748</v>
+      </c>
+      <c r="L7">
+        <v>0.49020000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>0.1726</v>
+      </c>
+      <c r="D8">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.3453</v>
+      </c>
+      <c r="G8">
+        <v>0.38019999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.48089999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.49740000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>0.187</v>
+      </c>
+      <c r="D9">
+        <v>0.2641</v>
+      </c>
+      <c r="E9">
+        <v>0.3155</v>
+      </c>
+      <c r="F9">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.49740000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.4501</v>
+      </c>
+      <c r="J10">
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.49840000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="1">
+        <v>250</v>
+      </c>
+      <c r="C11">
+        <v>0.1716</v>
+      </c>
+      <c r="D11">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.30309999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.3669</v>
+      </c>
+      <c r="H11">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="1">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>0.1479</v>
+      </c>
+      <c r="D12">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.45729999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.223</v>
+      </c>
+      <c r="E13">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.4244</v>
+      </c>
+      <c r="K13">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="L13">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C14">
+        <v>0.1305</v>
+      </c>
+      <c r="D14">
+        <v>0.2117</v>
+      </c>
+      <c r="E14">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.33910000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.371</v>
+      </c>
+      <c r="H14">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="K14">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="L14">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.2137</v>
+      </c>
+      <c r="E15">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.3422</v>
+      </c>
+      <c r="G15">
+        <v>0.373</v>
+      </c>
+      <c r="H15">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J15">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.2137</v>
+      </c>
+      <c r="E16">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.3422</v>
+      </c>
+      <c r="G16">
+        <v>0.372</v>
+      </c>
+      <c r="H16">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.41930000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="L16">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B34:L48"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="B17:L31"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="C4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J3" s="3">
         <v>8</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K3" s="3">
         <v>9</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L3" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0.11609999999999999</v>
+      <c r="C4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="G4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I4">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J4">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K4">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="L4">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="H5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="I5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J5">
+        <v>6.3E-3</v>
+      </c>
+      <c r="K5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="L5">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1">
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.17780000000000001</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D6">
-        <v>0.2127</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E6">
-        <v>0.2661</v>
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F6">
-        <v>0.30420000000000003</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="G6">
-        <v>0.31859999999999999</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="H6">
-        <v>0.32990000000000003</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="I6">
-        <v>0.35139999999999999</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="J6">
-        <v>0.36380000000000001</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="K6">
-        <v>0.37609999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.19520000000000001</v>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="1">
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>0.25480000000000003</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0.2949</v>
+        <v>1.9E-3</v>
       </c>
       <c r="E7">
-        <v>0.37609999999999999</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F7">
-        <v>0.40179999999999999</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G7">
-        <v>0.42749999999999999</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H7">
-        <v>0.44500000000000001</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="I7">
-        <v>0.46139999999999998</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="J7">
-        <v>0.4748</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K7">
-        <v>0.49020000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0.1726</v>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="L7">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="1">
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0.24759999999999999</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D8">
-        <v>0.29899999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="E8">
-        <v>0.3453</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F8">
-        <v>0.38019999999999998</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="G8">
-        <v>0.40279999999999999</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="H8">
-        <v>0.41410000000000002</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="I8">
-        <v>0.44800000000000001</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="J8">
-        <v>0.48089999999999999</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K8">
-        <v>0.49740000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>0.187</v>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="L8">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1">
+        <v>250</v>
       </c>
       <c r="C9">
-        <v>0.2641</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="D9">
-        <v>0.3155</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E9">
-        <v>0.35449999999999998</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F9">
-        <v>0.37709999999999999</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G9">
-        <v>0.41620000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>0.43780000000000002</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="I9">
-        <v>0.45829999999999999</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="J9">
-        <v>0.48609999999999998</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="K9">
-        <v>0.49740000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>0.17979999999999999</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="L9">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1">
+        <v>500</v>
       </c>
       <c r="C10">
-        <v>0.27539999999999998</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D10">
-        <v>0.32679999999999998</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E10">
-        <v>0.37709999999999999</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F10">
-        <v>0.39560000000000001</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G10">
-        <v>0.43059999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>0.4501</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="I10">
-        <v>0.46760000000000002</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="J10">
-        <v>0.48499999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K10">
-        <v>0.49840000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>250</v>
-      </c>
-      <c r="B11">
-        <v>0.1716</v>
+        <v>6.6E-3</v>
+      </c>
+      <c r="L10">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1">
+        <v>1000</v>
       </c>
       <c r="C11">
-        <v>0.23319999999999999</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D11">
-        <v>0.30309999999999998</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E11">
-        <v>0.33090000000000003</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F11">
-        <v>0.3669</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G11">
-        <v>0.38950000000000001</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="H11">
-        <v>0.40899999999999997</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="I11">
-        <v>0.43159999999999998</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="J11">
-        <v>0.45319999999999999</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="K11">
-        <v>0.46450000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>500</v>
-      </c>
-      <c r="B12">
-        <v>0.1479</v>
+        <v>6.3E-3</v>
+      </c>
+      <c r="L11">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1">
+        <v>2000</v>
       </c>
       <c r="C12">
-        <v>0.23630000000000001</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D12">
-        <v>0.29389999999999999</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E12">
-        <v>0.34839999999999999</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F12">
-        <v>0.38229999999999997</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="G12">
-        <v>0.40589999999999998</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H12">
-        <v>0.42649999999999999</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I12">
-        <v>0.43980000000000002</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J12">
-        <v>0.44600000000000001</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="K12">
-        <v>0.45729999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B13">
-        <v>0.14180000000000001</v>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="1">
+        <v>5000</v>
       </c>
       <c r="C13">
-        <v>0.223</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D13">
-        <v>0.28050000000000003</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E13">
-        <v>0.33910000000000001</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F13">
-        <v>0.37609999999999999</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G13">
-        <v>0.39560000000000001</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H13">
-        <v>0.41620000000000001</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I13">
-        <v>0.4244</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J13">
-        <v>0.43059999999999998</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="K13">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B14">
-        <v>0.1305</v>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L13">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2117</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="D14">
-        <v>0.27639999999999998</v>
+        <v>1.4E-3</v>
       </c>
       <c r="E14">
-        <v>0.33910000000000001</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F14">
-        <v>0.371</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="G14">
-        <v>0.38840000000000002</v>
+        <v>3.8E-3</v>
       </c>
       <c r="H14">
-        <v>0.40799999999999997</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="I14">
-        <v>0.42030000000000001</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J14">
-        <v>0.43059999999999998</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="K14">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B15">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.2137</v>
-      </c>
-      <c r="D15">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="E15">
-        <v>0.3422</v>
-      </c>
-      <c r="F15">
-        <v>0.373</v>
-      </c>
-      <c r="G15">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="I15">
-        <v>0.42030000000000001</v>
-      </c>
-      <c r="J15">
-        <v>0.43059999999999998</v>
-      </c>
-      <c r="K15">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.2137</v>
-      </c>
-      <c r="D16">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="E16">
-        <v>0.3422</v>
-      </c>
-      <c r="F16">
-        <v>0.372</v>
-      </c>
-      <c r="G16">
-        <v>0.39050000000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="I16">
-        <v>0.41930000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.43059999999999998</v>
-      </c>
-      <c r="K16">
-        <v>0.44500000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="L14">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -12691,9 +14477,9 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -12704,9 +14490,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -12717,9 +14503,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -12730,9 +14516,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -12743,9 +14529,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -12756,9 +14542,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -12769,9 +14555,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -12782,9 +14568,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -12795,9 +14581,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -12808,9 +14594,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -12821,9 +14607,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -12834,9 +14620,9 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -12847,35 +14633,152 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -12886,10 +14789,10 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -12899,9 +14802,9 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -12912,1157 +14815,14 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="L47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="A17:K31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:K29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="C4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="E4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G4">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="H4">
-        <v>3.8E-3</v>
-      </c>
-      <c r="I4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="J4">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K4">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1E-3</v>
-      </c>
-      <c r="C5">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E5">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F5">
-        <v>4.3E-3</v>
-      </c>
-      <c r="G5">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="I5">
-        <v>6.3E-3</v>
-      </c>
-      <c r="J5">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="K5">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="C6">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D6">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="E6">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="F6">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="G6">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H6">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I6">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="J6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K6">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>1E-3</v>
-      </c>
-      <c r="C7">
-        <v>1.9E-3</v>
-      </c>
-      <c r="D7">
-        <v>2.8E-3</v>
-      </c>
-      <c r="E7">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F7">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="G7">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="H7">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="I7">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="J7">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="K7">
-        <v>7.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="C8">
-        <v>2E-3</v>
-      </c>
-      <c r="D8">
-        <v>2.8E-3</v>
-      </c>
-      <c r="E8">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F8">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="G8">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="H8">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="I8">
-        <v>6.6E-3</v>
-      </c>
-      <c r="J8">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="K8">
-        <v>7.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>250</v>
-      </c>
-      <c r="B9">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="C9">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E9">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G9">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H9">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="I9">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="J9">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="K9">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>500</v>
-      </c>
-      <c r="B10">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="C10">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E10">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="G10">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="H10">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="I10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J10">
-        <v>6.6E-3</v>
-      </c>
-      <c r="K10">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C11">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D11">
-        <v>2.3E-3</v>
-      </c>
-      <c r="E11">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="F11">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="G11">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="H11">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="I11">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J11">
-        <v>6.3E-3</v>
-      </c>
-      <c r="K11">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B12">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C12">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D12">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="E12">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="F12">
-        <v>3.8E-3</v>
-      </c>
-      <c r="G12">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="H12">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="I12">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="J12">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="K12">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B13">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C13">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D13">
-        <v>2.3E-3</v>
-      </c>
-      <c r="E13">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F13">
-        <v>3.8E-3</v>
-      </c>
-      <c r="G13">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="H13">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="I13">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="J13">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="K13">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="C14">
-        <v>1.4E-3</v>
-      </c>
-      <c r="D14">
-        <v>2.3E-3</v>
-      </c>
-      <c r="E14">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F14">
-        <v>3.8E-3</v>
-      </c>
-      <c r="G14">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="H14">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="I14">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="J14">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="K14">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A15:K29"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B15:L29"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="A4:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
